--- a/medicine/Pharmacie/Pharmacothérapie/Pharmacothérapie.xlsx
+++ b/medicine/Pharmacie/Pharmacothérapie/Pharmacothérapie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pharmacoth%C3%A9rapie</t>
+          <t>Pharmacothérapie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pharmacothérapie est l'utilisation thérapeutique des médicaments.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pharmacoth%C3%A9rapie</t>
+          <t>Pharmacothérapie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour plusieurs maladies ou conditions médicales spécifiques, il existe un certain nombre de médicaments qui sont spécialement indiqués et qui sont fréquemment, sinon toujours, prescrits. Ces indications peuvent être homologués par les autorités gouvernementales, par les compagnies pharmaceutiques, par des lignes directrices émises par des associations de professionnels de la santé et/ou par des études cliniques. Ainsi, la pharmacothérapie correspond à l'utilisation optimale des médicaments qui sont reconnus comme efficaces dans le traitement ou la prévention de ladite maladie.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pharmacoth%C3%A9rapie</t>
+          <t>Pharmacothérapie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Problèmes reliés à la pharmacothérapie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La pharmacothérapie est souvent complexe, et plusieurs problèmes peuvent s'y glisser. Le pharmacien est le professionnel de la santé le mieux formé pour assister le patient dans l'utilisation de ses médicaments. Il existe une variété de problèmes reliés à la pharmacothérapie :
 Le patient a besoin d'une pharmacothérapie mais ne la reçoit pas.
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pharmacoth%C3%A9rapie</t>
+          <t>Pharmacothérapie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,7 +606,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Chimiothérapie
 Pharmacologie</t>
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pharmacoth%C3%A9rapie</t>
+          <t>Pharmacothérapie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,7 +639,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
